--- a/Data/PIB.xlsx
+++ b/Data/PIB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charly\Documents\Data Science\Projects\water_management\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230869B8-1555-4CA6-A790-E6E4C131B22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE75F31D-D567-4390-93D6-A160C8C6EC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="3705" windowWidth="27960" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="3825" windowWidth="27900" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>Clave</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre </t>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
